--- a/dados/produto_daf_atualizar.xlsx
+++ b/dados/produto_daf_atualizar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Django\SisDAF\dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed001fd75dfbae91/Área de Trabalho/SisDAF/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4356AF3F-201D-4723-83F2-85D6B70BEBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{4356AF3F-201D-4723-83F2-85D6B70BEBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A755088-CB9E-4284-9935-BD18B9A7DC41}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7967873A-6441-4A71-BE48-1CD5FB1FFF8C}"/>
+    <workbookView xWindow="10290" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{7967873A-6441-4A71-BE48-1CD5FB1FFF8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -404,11 +404,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7491E460-A9A8-4DF0-8153-C1BA811B4B81}">
   <dimension ref="A1:E946"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,7 +433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -442,7 +450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -459,7 +467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -476,7 +484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -493,7 +501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -510,7 +518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -527,7 +535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -544,7 +552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -561,7 +569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -578,7 +586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -595,7 +603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -612,7 +620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -629,7 +637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -646,7 +654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -663,7 +671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -680,7 +688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -697,7 +705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -714,7 +722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -731,7 +739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -748,7 +756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -765,7 +773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -782,7 +790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -799,7 +807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -816,7 +824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -833,7 +841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -850,7 +858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -867,7 +875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -884,7 +892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -901,7 +909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -918,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -935,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -952,7 +960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -969,7 +977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -986,7 +994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1003,7 +1011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1020,7 +1028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1037,7 +1045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1054,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1071,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1088,7 +1096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1105,7 +1113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1122,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1139,7 +1147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1156,7 +1164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1173,7 +1181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1190,7 +1198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1207,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1224,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1241,7 +1249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1258,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1275,7 +1283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1292,7 +1300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1309,7 +1317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1326,7 +1334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1343,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1360,7 +1368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1377,7 +1385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1394,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1411,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1428,7 +1436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1445,7 +1453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1462,7 +1470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1479,7 +1487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1496,7 +1504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1513,7 +1521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1530,7 +1538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1547,7 +1555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1564,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1581,7 +1589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1598,7 +1606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1615,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1632,7 +1640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1649,7 +1657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1666,7 +1674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1683,7 +1691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1700,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1717,7 +1725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1734,7 +1742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1751,7 +1759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1768,7 +1776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1785,7 +1793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1802,7 +1810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1819,7 +1827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1836,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1853,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1870,7 +1878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1887,7 +1895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1904,7 +1912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -1921,7 +1929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1938,7 +1946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1955,7 +1963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -1972,7 +1980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -1989,7 +1997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2006,7 +2014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2023,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2040,7 +2048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2057,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2074,7 +2082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2091,7 +2099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2108,7 +2116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2125,7 +2133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2142,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2159,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2176,7 +2184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2193,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2210,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2227,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2244,7 +2252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2261,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2278,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2295,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -2312,7 +2320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2329,7 +2337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -2346,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -2363,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -2380,7 +2388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -2397,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -2414,7 +2422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -2431,7 +2439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -2448,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -2465,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -2482,7 +2490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -2499,7 +2507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -2516,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -2533,7 +2541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -2550,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -2567,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -2584,7 +2592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -2601,7 +2609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -2618,7 +2626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -2635,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -2652,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -2669,7 +2677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -2686,7 +2694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -2703,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -2720,7 +2728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -2737,7 +2745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -2754,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -2771,7 +2779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -2788,7 +2796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -2805,7 +2813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -2822,7 +2830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -2839,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -2856,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -2873,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -2890,7 +2898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -2907,7 +2915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -2924,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -2941,7 +2949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -2958,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -2975,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -2992,7 +3000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -3009,7 +3017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -3026,7 +3034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -3043,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -3060,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -3077,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -3094,7 +3102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -3111,7 +3119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -3128,7 +3136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -3145,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -3162,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -3179,7 +3187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -3196,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -3213,7 +3221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -3230,7 +3238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -3247,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -3264,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -3281,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -3298,7 +3306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -3315,7 +3323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -3332,7 +3340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -3349,7 +3357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -3366,7 +3374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -3383,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -3400,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -3417,7 +3425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -3434,7 +3442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -3451,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -3468,7 +3476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -3485,7 +3493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -3502,7 +3510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -3519,7 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -3536,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -3553,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -3570,7 +3578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -3587,7 +3595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -3604,7 +3612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -3621,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -3638,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -3655,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -3672,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -3689,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -3706,7 +3714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -3723,7 +3731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -3740,7 +3748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -3757,7 +3765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -3774,7 +3782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -3791,7 +3799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -3808,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -3825,7 +3833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -3842,7 +3850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -3859,7 +3867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -3876,7 +3884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -3893,7 +3901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -3910,7 +3918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -3927,7 +3935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -3944,7 +3952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -3961,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -3978,7 +3986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -3995,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -4012,7 +4020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -4029,7 +4037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -4046,7 +4054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -4063,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -4080,7 +4088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -4097,7 +4105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -4114,7 +4122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -4131,7 +4139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -4148,7 +4156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -4165,7 +4173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -4182,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -4199,7 +4207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -4216,7 +4224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -4233,7 +4241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
@@ -4250,7 +4258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
@@ -4267,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
@@ -4284,7 +4292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
@@ -4301,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
@@ -4318,7 +4326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
@@ -4335,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
@@ -4352,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
@@ -4369,7 +4377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
@@ -4386,7 +4394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
@@ -4403,7 +4411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
@@ -4420,7 +4428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
@@ -4437,7 +4445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
@@ -4454,7 +4462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
@@ -4471,7 +4479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
@@ -4488,7 +4496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
@@ -4505,7 +4513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
@@ -4522,7 +4530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
@@ -4539,7 +4547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
@@ -4556,7 +4564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
@@ -4573,7 +4581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
@@ -4590,7 +4598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
@@ -4607,7 +4615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>247</v>
       </c>
@@ -4624,7 +4632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
@@ -4641,7 +4649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
@@ -4658,7 +4666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>
@@ -4675,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>251</v>
       </c>
@@ -4692,7 +4700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>252</v>
       </c>
@@ -4709,7 +4717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>253</v>
       </c>
@@ -4726,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>254</v>
       </c>
@@ -4743,7 +4751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>255</v>
       </c>
@@ -4760,7 +4768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>256</v>
       </c>
@@ -4777,7 +4785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>257</v>
       </c>
@@ -4794,7 +4802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>258</v>
       </c>
@@ -4811,7 +4819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>259</v>
       </c>
@@ -4828,7 +4836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>260</v>
       </c>
@@ -4845,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>261</v>
       </c>
@@ -4862,7 +4870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>262</v>
       </c>
@@ -4879,7 +4887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>263</v>
       </c>
@@ -4896,7 +4904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>264</v>
       </c>
@@ -4913,7 +4921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>265</v>
       </c>
@@ -4930,7 +4938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>266</v>
       </c>
@@ -4947,7 +4955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>267</v>
       </c>
@@ -4964,7 +4972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>268</v>
       </c>
@@ -4981,7 +4989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>269</v>
       </c>
@@ -4998,7 +5006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>270</v>
       </c>
@@ -5015,7 +5023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>271</v>
       </c>
@@ -5032,7 +5040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>272</v>
       </c>
@@ -5049,7 +5057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>273</v>
       </c>
@@ -5066,7 +5074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>274</v>
       </c>
@@ -5083,7 +5091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>275</v>
       </c>
@@ -5100,7 +5108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>276</v>
       </c>
@@ -5117,7 +5125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>277</v>
       </c>
@@ -5134,7 +5142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>278</v>
       </c>
@@ -5151,7 +5159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>279</v>
       </c>
@@ -5168,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>280</v>
       </c>
@@ -5185,7 +5193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>281</v>
       </c>
@@ -5202,7 +5210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>282</v>
       </c>
@@ -5219,7 +5227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>283</v>
       </c>
@@ -5236,7 +5244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>284</v>
       </c>
@@ -5253,7 +5261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>285</v>
       </c>
@@ -5270,7 +5278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>286</v>
       </c>
@@ -5287,7 +5295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>287</v>
       </c>
@@ -5304,7 +5312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>288</v>
       </c>
@@ -5321,7 +5329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>289</v>
       </c>
@@ -5338,7 +5346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>290</v>
       </c>
@@ -5355,7 +5363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>291</v>
       </c>
@@ -5372,7 +5380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>292</v>
       </c>
@@ -5389,7 +5397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>293</v>
       </c>
@@ -5406,7 +5414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>294</v>
       </c>
@@ -5423,7 +5431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>295</v>
       </c>
@@ -5440,7 +5448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>296</v>
       </c>
@@ -5457,7 +5465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>297</v>
       </c>
@@ -5474,7 +5482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>298</v>
       </c>
@@ -5491,7 +5499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>299</v>
       </c>
@@ -5508,7 +5516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>300</v>
       </c>
@@ -5525,7 +5533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>301</v>
       </c>
@@ -5542,7 +5550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>302</v>
       </c>
@@ -5559,7 +5567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>303</v>
       </c>
@@ -5576,7 +5584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>304</v>
       </c>
@@ -5593,7 +5601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>305</v>
       </c>
@@ -5610,7 +5618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>306</v>
       </c>
@@ -5627,7 +5635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>307</v>
       </c>
@@ -5644,7 +5652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>308</v>
       </c>
@@ -5661,7 +5669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>309</v>
       </c>
@@ -5678,7 +5686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>310</v>
       </c>
@@ -5695,7 +5703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>311</v>
       </c>
@@ -5712,7 +5720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>312</v>
       </c>
@@ -5729,7 +5737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>313</v>
       </c>
@@ -5746,7 +5754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>314</v>
       </c>
@@ -5763,7 +5771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>315</v>
       </c>
@@ -5780,7 +5788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>316</v>
       </c>
@@ -5797,7 +5805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>317</v>
       </c>
@@ -5814,7 +5822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>318</v>
       </c>
@@ -5831,7 +5839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>319</v>
       </c>
@@ -5848,7 +5856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>320</v>
       </c>
@@ -5865,7 +5873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>321</v>
       </c>
@@ -5882,7 +5890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>322</v>
       </c>
@@ -5899,7 +5907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>323</v>
       </c>
@@ -5916,7 +5924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>324</v>
       </c>
@@ -5933,7 +5941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>325</v>
       </c>
@@ -5950,7 +5958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>326</v>
       </c>
@@ -5967,7 +5975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>327</v>
       </c>
@@ -5984,7 +5992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>328</v>
       </c>
@@ -6001,7 +6009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>329</v>
       </c>
@@ -6018,7 +6026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>330</v>
       </c>
@@ -6035,7 +6043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>331</v>
       </c>
@@ -6052,7 +6060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>332</v>
       </c>
@@ -6069,7 +6077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>333</v>
       </c>
@@ -6086,7 +6094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>334</v>
       </c>
@@ -6103,7 +6111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>335</v>
       </c>
@@ -6120,7 +6128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>336</v>
       </c>
@@ -6137,7 +6145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>337</v>
       </c>
@@ -6154,7 +6162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>338</v>
       </c>
@@ -6171,7 +6179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>339</v>
       </c>
@@ -6188,7 +6196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>340</v>
       </c>
@@ -6205,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>341</v>
       </c>
@@ -6222,7 +6230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>342</v>
       </c>
@@ -6239,7 +6247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>343</v>
       </c>
@@ -6256,7 +6264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>344</v>
       </c>
@@ -6273,7 +6281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>345</v>
       </c>
@@ -6290,7 +6298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>346</v>
       </c>
@@ -6307,7 +6315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>347</v>
       </c>
@@ -6324,7 +6332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>348</v>
       </c>
@@ -6341,7 +6349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>349</v>
       </c>
@@ -6358,7 +6366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>350</v>
       </c>
@@ -6375,7 +6383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>351</v>
       </c>
@@ -6392,7 +6400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>352</v>
       </c>
@@ -6409,7 +6417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>353</v>
       </c>
@@ -6426,7 +6434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>354</v>
       </c>
@@ -6443,7 +6451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>355</v>
       </c>
@@ -6460,7 +6468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>356</v>
       </c>
@@ -6477,7 +6485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>357</v>
       </c>
@@ -6494,7 +6502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>358</v>
       </c>
@@ -6511,7 +6519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>359</v>
       </c>
@@ -6528,7 +6536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>360</v>
       </c>
@@ -6545,7 +6553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>361</v>
       </c>
@@ -6562,7 +6570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>362</v>
       </c>
@@ -6579,7 +6587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>363</v>
       </c>
@@ -6596,7 +6604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>364</v>
       </c>
@@ -6613,7 +6621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>365</v>
       </c>
@@ -6630,7 +6638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>366</v>
       </c>
@@ -6647,7 +6655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>367</v>
       </c>
@@ -6664,7 +6672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>368</v>
       </c>
@@ -6681,7 +6689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>369</v>
       </c>
@@ -6698,7 +6706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>370</v>
       </c>
@@ -6715,7 +6723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>371</v>
       </c>
@@ -6732,7 +6740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>372</v>
       </c>
@@ -6749,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>373</v>
       </c>
@@ -6766,7 +6774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>374</v>
       </c>
@@ -6783,7 +6791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>375</v>
       </c>
@@ -6800,7 +6808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>376</v>
       </c>
@@ -6817,7 +6825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>377</v>
       </c>
@@ -6834,7 +6842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>378</v>
       </c>
@@ -6851,7 +6859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>379</v>
       </c>
@@ -6868,7 +6876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>380</v>
       </c>
@@ -6885,7 +6893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>381</v>
       </c>
@@ -6902,7 +6910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>382</v>
       </c>
@@ -6919,7 +6927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>383</v>
       </c>
@@ -6936,7 +6944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>384</v>
       </c>
@@ -6953,7 +6961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>385</v>
       </c>
@@ -6970,7 +6978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>386</v>
       </c>
@@ -6987,7 +6995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>387</v>
       </c>
@@ -7004,7 +7012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>388</v>
       </c>
@@ -7021,7 +7029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>389</v>
       </c>
@@ -7038,7 +7046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>390</v>
       </c>
@@ -7055,7 +7063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>391</v>
       </c>
@@ -7072,7 +7080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>392</v>
       </c>
@@ -7089,7 +7097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>393</v>
       </c>
@@ -7106,7 +7114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>394</v>
       </c>
@@ -7123,7 +7131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>395</v>
       </c>
@@ -7140,7 +7148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>396</v>
       </c>
@@ -7157,7 +7165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>397</v>
       </c>
@@ -7174,7 +7182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>398</v>
       </c>
@@ -7191,7 +7199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>399</v>
       </c>
@@ -7208,7 +7216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>400</v>
       </c>
@@ -7225,7 +7233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>401</v>
       </c>
@@ -7242,7 +7250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>402</v>
       </c>
@@ -7259,7 +7267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>403</v>
       </c>
@@ -7276,7 +7284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>404</v>
       </c>
@@ -7293,7 +7301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>405</v>
       </c>
@@ -7310,7 +7318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>406</v>
       </c>
@@ -7327,7 +7335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>407</v>
       </c>
@@ -7344,7 +7352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>408</v>
       </c>
@@ -7361,7 +7369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>409</v>
       </c>
@@ -7378,7 +7386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>410</v>
       </c>
@@ -7395,7 +7403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>411</v>
       </c>
@@ -7412,7 +7420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>412</v>
       </c>
@@ -7429,7 +7437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>413</v>
       </c>
@@ -7446,7 +7454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>414</v>
       </c>
@@ -7463,7 +7471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>415</v>
       </c>
@@ -7480,7 +7488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>416</v>
       </c>
@@ -7497,7 +7505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>417</v>
       </c>
@@ -7514,7 +7522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>418</v>
       </c>
@@ -7531,7 +7539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>419</v>
       </c>
@@ -7548,7 +7556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>420</v>
       </c>
@@ -7565,7 +7573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>421</v>
       </c>
@@ -7582,7 +7590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>422</v>
       </c>
@@ -7599,7 +7607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>423</v>
       </c>
@@ -7616,7 +7624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>424</v>
       </c>
@@ -7633,7 +7641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>425</v>
       </c>
@@ -7650,7 +7658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>426</v>
       </c>
@@ -7667,7 +7675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>427</v>
       </c>
@@ -7684,7 +7692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>428</v>
       </c>
@@ -7701,7 +7709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>429</v>
       </c>
@@ -7718,7 +7726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>430</v>
       </c>
@@ -7735,7 +7743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>431</v>
       </c>
@@ -7752,7 +7760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>432</v>
       </c>
@@ -7769,7 +7777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>433</v>
       </c>
@@ -7786,7 +7794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>434</v>
       </c>
@@ -7803,7 +7811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>435</v>
       </c>
@@ -7820,7 +7828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>436</v>
       </c>
@@ -7837,7 +7845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>437</v>
       </c>
@@ -7854,7 +7862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>438</v>
       </c>
@@ -7871,7 +7879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>439</v>
       </c>
@@ -7888,7 +7896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>440</v>
       </c>
@@ -7905,7 +7913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>441</v>
       </c>
@@ -7922,7 +7930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>442</v>
       </c>
@@ -7939,7 +7947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>443</v>
       </c>
@@ -7956,7 +7964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>444</v>
       </c>
@@ -7973,7 +7981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>445</v>
       </c>
@@ -7990,7 +7998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>446</v>
       </c>
@@ -8007,7 +8015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>447</v>
       </c>
@@ -8024,7 +8032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>448</v>
       </c>
@@ -8041,7 +8049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>449</v>
       </c>
@@ -8058,7 +8066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>450</v>
       </c>
@@ -8075,7 +8083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>451</v>
       </c>
@@ -8092,7 +8100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>452</v>
       </c>
@@ -8109,7 +8117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>453</v>
       </c>
@@ -8126,7 +8134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>454</v>
       </c>
@@ -8143,7 +8151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>455</v>
       </c>
@@ -8160,7 +8168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>456</v>
       </c>
@@ -8177,7 +8185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>457</v>
       </c>
@@ -8194,7 +8202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>458</v>
       </c>
@@ -8211,7 +8219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>459</v>
       </c>
@@ -8228,7 +8236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>460</v>
       </c>
@@ -8245,7 +8253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>461</v>
       </c>
@@ -8262,7 +8270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>462</v>
       </c>
@@ -8279,7 +8287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>463</v>
       </c>
@@ -8296,7 +8304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>464</v>
       </c>
@@ -8313,7 +8321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>465</v>
       </c>
@@ -8330,7 +8338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>466</v>
       </c>
@@ -8347,7 +8355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>467</v>
       </c>
@@ -8364,7 +8372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>468</v>
       </c>
@@ -8381,7 +8389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>469</v>
       </c>
@@ -8398,7 +8406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>470</v>
       </c>
@@ -8415,7 +8423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>471</v>
       </c>
@@ -8432,7 +8440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>472</v>
       </c>
@@ -8449,7 +8457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>473</v>
       </c>
@@ -8466,7 +8474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>474</v>
       </c>
@@ -8483,7 +8491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>475</v>
       </c>
@@ -8500,7 +8508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>476</v>
       </c>
@@ -8517,7 +8525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>477</v>
       </c>
@@ -8534,7 +8542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>478</v>
       </c>
@@ -8551,7 +8559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>479</v>
       </c>
@@ -8568,7 +8576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>480</v>
       </c>
@@ -8585,7 +8593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>481</v>
       </c>
@@ -8602,7 +8610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>482</v>
       </c>
@@ -8619,7 +8627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>483</v>
       </c>
@@ -8636,7 +8644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>484</v>
       </c>
@@ -8653,7 +8661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>485</v>
       </c>
@@ -8670,7 +8678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>486</v>
       </c>
@@ -8687,7 +8695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>487</v>
       </c>
@@ -8704,7 +8712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>488</v>
       </c>
@@ -8721,7 +8729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>489</v>
       </c>
@@ -8738,7 +8746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>490</v>
       </c>
@@ -8755,7 +8763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>491</v>
       </c>
@@ -8772,7 +8780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>492</v>
       </c>
@@ -8789,7 +8797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>493</v>
       </c>
@@ -8806,7 +8814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>494</v>
       </c>
@@ -8823,7 +8831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>495</v>
       </c>
@@ -8840,7 +8848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>496</v>
       </c>
@@ -8857,7 +8865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>497</v>
       </c>
@@ -8874,7 +8882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>498</v>
       </c>
@@ -8891,7 +8899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>499</v>
       </c>
@@ -8908,7 +8916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>500</v>
       </c>
@@ -8925,7 +8933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>501</v>
       </c>
@@ -8942,7 +8950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>502</v>
       </c>
@@ -8959,7 +8967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>503</v>
       </c>
@@ -8976,7 +8984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>504</v>
       </c>
@@ -8993,7 +9001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>505</v>
       </c>
@@ -9010,7 +9018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>506</v>
       </c>
@@ -9027,7 +9035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>507</v>
       </c>
@@ -9044,7 +9052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>508</v>
       </c>
@@ -9061,7 +9069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>509</v>
       </c>
@@ -9078,7 +9086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>510</v>
       </c>
@@ -9095,7 +9103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>511</v>
       </c>
@@ -9112,7 +9120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>512</v>
       </c>
@@ -9129,7 +9137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>513</v>
       </c>
@@ -9146,7 +9154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>514</v>
       </c>
@@ -9163,7 +9171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>515</v>
       </c>
@@ -9180,7 +9188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>516</v>
       </c>
@@ -9197,7 +9205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>517</v>
       </c>
@@ -9214,7 +9222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>518</v>
       </c>
@@ -9231,7 +9239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>519</v>
       </c>
@@ -9248,7 +9256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>520</v>
       </c>
@@ -9265,7 +9273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>521</v>
       </c>
@@ -9282,7 +9290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>522</v>
       </c>
@@ -9299,7 +9307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>523</v>
       </c>
@@ -9316,7 +9324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>524</v>
       </c>
@@ -9333,7 +9341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>525</v>
       </c>
@@ -9350,7 +9358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>526</v>
       </c>
@@ -9367,7 +9375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>527</v>
       </c>
@@ -9384,7 +9392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>528</v>
       </c>
@@ -9401,7 +9409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>529</v>
       </c>
@@ -9418,7 +9426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>530</v>
       </c>
@@ -9435,7 +9443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>531</v>
       </c>
@@ -9452,7 +9460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>532</v>
       </c>
@@ -9469,7 +9477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>533</v>
       </c>
@@ -9486,7 +9494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>534</v>
       </c>
@@ -9503,7 +9511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>535</v>
       </c>
@@ -9520,7 +9528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>536</v>
       </c>
@@ -9537,7 +9545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>537</v>
       </c>
@@ -9554,7 +9562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>538</v>
       </c>
@@ -9571,7 +9579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>539</v>
       </c>
@@ -9588,7 +9596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>540</v>
       </c>
@@ -9605,7 +9613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>541</v>
       </c>
@@ -9622,7 +9630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>542</v>
       </c>
@@ -9639,7 +9647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>543</v>
       </c>
@@ -9656,7 +9664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>544</v>
       </c>
@@ -9673,7 +9681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>545</v>
       </c>
@@ -9690,7 +9698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>546</v>
       </c>
@@ -9707,7 +9715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>547</v>
       </c>
@@ -9724,7 +9732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>548</v>
       </c>
@@ -9741,7 +9749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>549</v>
       </c>
@@ -9758,7 +9766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>550</v>
       </c>
@@ -9775,7 +9783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>551</v>
       </c>
@@ -9792,7 +9800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>552</v>
       </c>
@@ -9809,7 +9817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>553</v>
       </c>
@@ -9826,7 +9834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>554</v>
       </c>
@@ -9843,7 +9851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>555</v>
       </c>
@@ -9860,7 +9868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>556</v>
       </c>
@@ -9877,7 +9885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>557</v>
       </c>
@@ -9894,7 +9902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>558</v>
       </c>
@@ -9911,7 +9919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>559</v>
       </c>
@@ -9928,7 +9936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>560</v>
       </c>
@@ -9945,7 +9953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>561</v>
       </c>
@@ -9962,7 +9970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>562</v>
       </c>
@@ -9979,7 +9987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>563</v>
       </c>
@@ -9996,7 +10004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>564</v>
       </c>
@@ -10013,7 +10021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>565</v>
       </c>
@@ -10030,7 +10038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>566</v>
       </c>
@@ -10047,7 +10055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>567</v>
       </c>
@@ -10064,7 +10072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>568</v>
       </c>
@@ -10081,7 +10089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>569</v>
       </c>
@@ -10098,7 +10106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>570</v>
       </c>
@@ -10115,7 +10123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>571</v>
       </c>
@@ -10132,7 +10140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>572</v>
       </c>
@@ -10149,7 +10157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>573</v>
       </c>
@@ -10166,7 +10174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>574</v>
       </c>
@@ -10183,7 +10191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>575</v>
       </c>
@@ -10200,7 +10208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>576</v>
       </c>
@@ -10217,7 +10225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>577</v>
       </c>
@@ -10234,7 +10242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>578</v>
       </c>
@@ -10251,7 +10259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>579</v>
       </c>
@@ -10268,7 +10276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>580</v>
       </c>
@@ -10285,7 +10293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>581</v>
       </c>
@@ -10302,7 +10310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>582</v>
       </c>
@@ -10319,7 +10327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>583</v>
       </c>
@@ -10336,7 +10344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>584</v>
       </c>
@@ -10353,7 +10361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>585</v>
       </c>
@@ -10370,7 +10378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>586</v>
       </c>
@@ -10387,7 +10395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>587</v>
       </c>
@@ -10404,7 +10412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>588</v>
       </c>
@@ -10421,7 +10429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>589</v>
       </c>
@@ -10438,7 +10446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>590</v>
       </c>
@@ -10455,7 +10463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>591</v>
       </c>
@@ -10472,7 +10480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>592</v>
       </c>
@@ -10489,7 +10497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>593</v>
       </c>
@@ -10506,7 +10514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>594</v>
       </c>
@@ -10523,7 +10531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>595</v>
       </c>
@@ -10540,7 +10548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>596</v>
       </c>
@@ -10557,7 +10565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>597</v>
       </c>
@@ -10574,7 +10582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>598</v>
       </c>
@@ -10591,7 +10599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>599</v>
       </c>
@@ -10608,7 +10616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>600</v>
       </c>
@@ -10625,7 +10633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>601</v>
       </c>
@@ -10642,7 +10650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>602</v>
       </c>
@@ -10659,7 +10667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>603</v>
       </c>
@@ -10676,7 +10684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>604</v>
       </c>
@@ -10693,7 +10701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>605</v>
       </c>
@@ -10710,7 +10718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>606</v>
       </c>
@@ -10727,7 +10735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>607</v>
       </c>
@@ -10744,7 +10752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>608</v>
       </c>
@@ -10761,7 +10769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>609</v>
       </c>
@@ -10778,7 +10786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>610</v>
       </c>
@@ -10795,7 +10803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>611</v>
       </c>
@@ -10812,7 +10820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>612</v>
       </c>
@@ -10829,7 +10837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>613</v>
       </c>
@@ -10846,7 +10854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>614</v>
       </c>
@@ -10863,7 +10871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>615</v>
       </c>
@@ -10880,7 +10888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>616</v>
       </c>
@@ -10897,7 +10905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>617</v>
       </c>
@@ -10914,7 +10922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>618</v>
       </c>
@@ -10931,7 +10939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>619</v>
       </c>
@@ -10948,7 +10956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>620</v>
       </c>
@@ -10965,7 +10973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>621</v>
       </c>
@@ -10982,7 +10990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>622</v>
       </c>
@@ -10999,7 +11007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>623</v>
       </c>
@@ -11016,7 +11024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>624</v>
       </c>
@@ -11033,7 +11041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>625</v>
       </c>
@@ -11050,7 +11058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>626</v>
       </c>
@@ -11067,7 +11075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>627</v>
       </c>
@@ -11084,7 +11092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>628</v>
       </c>
@@ -11101,7 +11109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>629</v>
       </c>
@@ -11118,7 +11126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>630</v>
       </c>
@@ -11135,7 +11143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>631</v>
       </c>
@@ -11152,7 +11160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>632</v>
       </c>
@@ -11169,7 +11177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>633</v>
       </c>
@@ -11186,7 +11194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>634</v>
       </c>
@@ -11203,7 +11211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>635</v>
       </c>
@@ -11220,7 +11228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>636</v>
       </c>
@@ -11237,7 +11245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>637</v>
       </c>
@@ -11254,7 +11262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>638</v>
       </c>
@@ -11271,7 +11279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>639</v>
       </c>
@@ -11288,7 +11296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>640</v>
       </c>
@@ -11305,7 +11313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A642">
         <v>641</v>
       </c>
@@ -11322,7 +11330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A643">
         <v>642</v>
       </c>
@@ -11339,7 +11347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A644">
         <v>643</v>
       </c>
@@ -11356,7 +11364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>644</v>
       </c>
@@ -11373,7 +11381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A646">
         <v>645</v>
       </c>
@@ -11390,7 +11398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A647">
         <v>646</v>
       </c>
@@ -11407,7 +11415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A648">
         <v>647</v>
       </c>
@@ -11424,7 +11432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>648</v>
       </c>
@@ -11441,7 +11449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>649</v>
       </c>
@@ -11458,7 +11466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A651">
         <v>650</v>
       </c>
@@ -11475,7 +11483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A652">
         <v>651</v>
       </c>
@@ -11492,7 +11500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A653">
         <v>652</v>
       </c>
@@ -11509,7 +11517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A654">
         <v>653</v>
       </c>
@@ -11526,7 +11534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A655">
         <v>654</v>
       </c>
@@ -11543,7 +11551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A656">
         <v>655</v>
       </c>
@@ -11560,7 +11568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A657">
         <v>656</v>
       </c>
@@ -11577,7 +11585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A658">
         <v>657</v>
       </c>
@@ -11594,7 +11602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A659">
         <v>658</v>
       </c>
@@ -11611,7 +11619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A660">
         <v>659</v>
       </c>
@@ -11628,7 +11636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A661">
         <v>660</v>
       </c>
@@ -11645,7 +11653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A662">
         <v>661</v>
       </c>
@@ -11662,7 +11670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A663">
         <v>662</v>
       </c>
@@ -11679,7 +11687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A664">
         <v>663</v>
       </c>
@@ -11696,7 +11704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A665">
         <v>664</v>
       </c>
@@ -11713,7 +11721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A666">
         <v>665</v>
       </c>
@@ -11730,7 +11738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A667">
         <v>666</v>
       </c>
@@ -11747,7 +11755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A668">
         <v>667</v>
       </c>
@@ -11764,7 +11772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A669">
         <v>668</v>
       </c>
@@ -11781,7 +11789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A670">
         <v>669</v>
       </c>
@@ -11798,7 +11806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A671">
         <v>670</v>
       </c>
@@ -11815,7 +11823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A672">
         <v>671</v>
       </c>
@@ -11832,7 +11840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A673">
         <v>672</v>
       </c>
@@ -11849,7 +11857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A674">
         <v>673</v>
       </c>
@@ -11866,7 +11874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A675">
         <v>674</v>
       </c>
@@ -11883,7 +11891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A676">
         <v>675</v>
       </c>
@@ -11900,7 +11908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A677">
         <v>676</v>
       </c>
@@ -11917,7 +11925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A678">
         <v>677</v>
       </c>
@@ -11934,7 +11942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A679">
         <v>678</v>
       </c>
@@ -11951,7 +11959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A680">
         <v>679</v>
       </c>
@@ -11968,7 +11976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A681">
         <v>680</v>
       </c>
@@ -11985,7 +11993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A682">
         <v>681</v>
       </c>
@@ -12002,7 +12010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A683">
         <v>682</v>
       </c>
@@ -12019,7 +12027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A684">
         <v>683</v>
       </c>
@@ -12036,7 +12044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A685">
         <v>684</v>
       </c>
@@ -12053,7 +12061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A686">
         <v>685</v>
       </c>
@@ -12070,7 +12078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A687">
         <v>686</v>
       </c>
@@ -12087,7 +12095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A688">
         <v>687</v>
       </c>
@@ -12104,7 +12112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A689">
         <v>688</v>
       </c>
@@ -12121,7 +12129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A690">
         <v>689</v>
       </c>
@@ -12138,7 +12146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A691">
         <v>690</v>
       </c>
@@ -12155,7 +12163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A692">
         <v>691</v>
       </c>
@@ -12172,7 +12180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A693">
         <v>692</v>
       </c>
@@ -12189,7 +12197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A694">
         <v>693</v>
       </c>
@@ -12206,7 +12214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A695">
         <v>694</v>
       </c>
@@ -12223,7 +12231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A696">
         <v>695</v>
       </c>
@@ -12240,7 +12248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A697">
         <v>696</v>
       </c>
@@ -12257,7 +12265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A698">
         <v>697</v>
       </c>
@@ -12274,7 +12282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A699">
         <v>698</v>
       </c>
@@ -12291,7 +12299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A700">
         <v>699</v>
       </c>
@@ -12308,7 +12316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A701">
         <v>700</v>
       </c>
@@ -12325,7 +12333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A702">
         <v>701</v>
       </c>
@@ -12342,7 +12350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A703">
         <v>702</v>
       </c>
@@ -12359,7 +12367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A704">
         <v>703</v>
       </c>
@@ -12376,7 +12384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A705">
         <v>704</v>
       </c>
@@ -12393,7 +12401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A706">
         <v>705</v>
       </c>
@@ -12410,7 +12418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A707">
         <v>706</v>
       </c>
@@ -12427,7 +12435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A708">
         <v>707</v>
       </c>
@@ -12444,7 +12452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A709">
         <v>708</v>
       </c>
@@ -12461,7 +12469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A710">
         <v>709</v>
       </c>
@@ -12478,7 +12486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A711">
         <v>710</v>
       </c>
@@ -12495,7 +12503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A712">
         <v>711</v>
       </c>
@@ -12512,7 +12520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A713">
         <v>712</v>
       </c>
@@ -12529,7 +12537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A714">
         <v>713</v>
       </c>
@@ -12546,7 +12554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A715">
         <v>714</v>
       </c>
@@ -12563,7 +12571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A716">
         <v>715</v>
       </c>
@@ -12580,7 +12588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A717">
         <v>716</v>
       </c>
@@ -12597,7 +12605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A718">
         <v>717</v>
       </c>
@@ -12614,7 +12622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A719">
         <v>718</v>
       </c>
@@ -12631,7 +12639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A720">
         <v>719</v>
       </c>
@@ -12648,7 +12656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A721">
         <v>720</v>
       </c>
@@ -12665,7 +12673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A722">
         <v>721</v>
       </c>
@@ -12682,7 +12690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A723">
         <v>722</v>
       </c>
@@ -12699,7 +12707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A724">
         <v>723</v>
       </c>
@@ -12716,7 +12724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A725">
         <v>724</v>
       </c>
@@ -12733,7 +12741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A726">
         <v>725</v>
       </c>
@@ -12750,7 +12758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A727">
         <v>726</v>
       </c>
@@ -12767,7 +12775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A728">
         <v>727</v>
       </c>
@@ -12784,7 +12792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A729">
         <v>728</v>
       </c>
@@ -12801,7 +12809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A730">
         <v>729</v>
       </c>
@@ -12818,7 +12826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A731">
         <v>730</v>
       </c>
@@ -12835,7 +12843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A732">
         <v>731</v>
       </c>
@@ -12852,7 +12860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A733">
         <v>732</v>
       </c>
@@ -12869,7 +12877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A734">
         <v>733</v>
       </c>
@@ -12886,7 +12894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A735">
         <v>734</v>
       </c>
@@ -12903,7 +12911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A736">
         <v>735</v>
       </c>
@@ -12920,7 +12928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A737">
         <v>736</v>
       </c>
@@ -12937,7 +12945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A738">
         <v>737</v>
       </c>
@@ -12954,7 +12962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A739">
         <v>738</v>
       </c>
@@ -12971,7 +12979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A740">
         <v>739</v>
       </c>
@@ -12988,7 +12996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A741">
         <v>740</v>
       </c>
@@ -13005,7 +13013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A742">
         <v>741</v>
       </c>
@@ -13022,7 +13030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A743">
         <v>742</v>
       </c>
@@ -13039,7 +13047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A744">
         <v>743</v>
       </c>
@@ -13056,7 +13064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A745">
         <v>744</v>
       </c>
@@ -13073,7 +13081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A746">
         <v>745</v>
       </c>
@@ -13090,7 +13098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A747">
         <v>746</v>
       </c>
@@ -13107,7 +13115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A748">
         <v>747</v>
       </c>
@@ -13124,7 +13132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A749">
         <v>748</v>
       </c>
@@ -13141,7 +13149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A750">
         <v>749</v>
       </c>
@@ -13158,7 +13166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A751">
         <v>750</v>
       </c>
@@ -13175,7 +13183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A752">
         <v>751</v>
       </c>
@@ -13192,7 +13200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A753">
         <v>752</v>
       </c>
@@ -13209,7 +13217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A754">
         <v>753</v>
       </c>
@@ -13226,7 +13234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A755">
         <v>754</v>
       </c>
@@ -13243,7 +13251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A756">
         <v>755</v>
       </c>
@@ -13260,7 +13268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A757">
         <v>756</v>
       </c>
@@ -13277,7 +13285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A758">
         <v>757</v>
       </c>
@@ -13294,7 +13302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A759">
         <v>758</v>
       </c>
@@ -13311,7 +13319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A760">
         <v>759</v>
       </c>
@@ -13328,7 +13336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A761">
         <v>760</v>
       </c>
@@ -13345,7 +13353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A762">
         <v>761</v>
       </c>
@@ -13362,7 +13370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A763">
         <v>762</v>
       </c>
@@ -13379,7 +13387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A764">
         <v>763</v>
       </c>
@@ -13396,7 +13404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A765">
         <v>764</v>
       </c>
@@ -13413,7 +13421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A766">
         <v>765</v>
       </c>
@@ -13430,7 +13438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A767">
         <v>766</v>
       </c>
@@ -13447,7 +13455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A768">
         <v>767</v>
       </c>
@@ -13464,7 +13472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A769">
         <v>768</v>
       </c>
@@ -13481,7 +13489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A770">
         <v>769</v>
       </c>
@@ -13498,7 +13506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A771">
         <v>770</v>
       </c>
@@ -13515,7 +13523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A772">
         <v>771</v>
       </c>
@@ -13532,7 +13540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A773">
         <v>772</v>
       </c>
@@ -13549,7 +13557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A774">
         <v>773</v>
       </c>
@@ -13566,7 +13574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A775">
         <v>774</v>
       </c>
@@ -13583,7 +13591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A776">
         <v>775</v>
       </c>
@@ -13600,7 +13608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A777">
         <v>776</v>
       </c>
@@ -13617,7 +13625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A778">
         <v>777</v>
       </c>
@@ -13634,7 +13642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A779">
         <v>778</v>
       </c>
@@ -13651,7 +13659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A780">
         <v>779</v>
       </c>
@@ -13668,7 +13676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A781">
         <v>780</v>
       </c>
@@ -13685,7 +13693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A782">
         <v>781</v>
       </c>
@@ -13702,7 +13710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A783">
         <v>782</v>
       </c>
@@ -13719,7 +13727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A784">
         <v>783</v>
       </c>
@@ -13736,7 +13744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A785">
         <v>784</v>
       </c>
@@ -13753,7 +13761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A786">
         <v>785</v>
       </c>
@@ -13770,7 +13778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A787">
         <v>786</v>
       </c>
@@ -13787,7 +13795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A788">
         <v>787</v>
       </c>
@@ -13804,7 +13812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A789">
         <v>788</v>
       </c>
@@ -13821,7 +13829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A790">
         <v>789</v>
       </c>
@@ -13838,7 +13846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A791">
         <v>790</v>
       </c>
@@ -13855,7 +13863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A792">
         <v>791</v>
       </c>
@@ -13872,7 +13880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A793">
         <v>792</v>
       </c>
@@ -13889,7 +13897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A794">
         <v>793</v>
       </c>
@@ -13906,7 +13914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A795">
         <v>794</v>
       </c>
@@ -13923,7 +13931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A796">
         <v>795</v>
       </c>
@@ -13940,7 +13948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A797">
         <v>796</v>
       </c>
@@ -13957,7 +13965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A798">
         <v>797</v>
       </c>
@@ -13974,7 +13982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A799">
         <v>798</v>
       </c>
@@ -13991,7 +13999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A800">
         <v>799</v>
       </c>
@@ -14008,7 +14016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A801">
         <v>800</v>
       </c>
@@ -14025,7 +14033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A802">
         <v>801</v>
       </c>
@@ -14042,7 +14050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A803">
         <v>802</v>
       </c>
@@ -14059,7 +14067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A804">
         <v>803</v>
       </c>
@@ -14076,7 +14084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A805">
         <v>804</v>
       </c>
@@ -14093,7 +14101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A806">
         <v>805</v>
       </c>
@@ -14110,7 +14118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A807">
         <v>806</v>
       </c>
@@ -14127,7 +14135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A808">
         <v>807</v>
       </c>
@@ -14144,7 +14152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A809">
         <v>808</v>
       </c>
@@ -14161,7 +14169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A810">
         <v>809</v>
       </c>
@@ -14178,7 +14186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A811">
         <v>810</v>
       </c>
@@ -14195,7 +14203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A812">
         <v>811</v>
       </c>
@@ -14212,7 +14220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A813">
         <v>812</v>
       </c>
@@ -14229,7 +14237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A814">
         <v>813</v>
       </c>
@@ -14246,7 +14254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A815">
         <v>814</v>
       </c>
@@ -14263,7 +14271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A816">
         <v>815</v>
       </c>
@@ -14280,7 +14288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A817">
         <v>816</v>
       </c>
@@ -14297,7 +14305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A818">
         <v>817</v>
       </c>
@@ -14314,7 +14322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A819">
         <v>818</v>
       </c>
@@ -14331,7 +14339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A820">
         <v>819</v>
       </c>
@@ -14348,7 +14356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A821">
         <v>820</v>
       </c>
@@ -14365,7 +14373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A822">
         <v>821</v>
       </c>
@@ -14382,7 +14390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A823">
         <v>822</v>
       </c>
@@ -14399,7 +14407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A824">
         <v>823</v>
       </c>
@@ -14416,7 +14424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A825">
         <v>824</v>
       </c>
@@ -14433,7 +14441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A826">
         <v>825</v>
       </c>
@@ -14450,7 +14458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A827">
         <v>826</v>
       </c>
@@ -14467,7 +14475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A828">
         <v>827</v>
       </c>
@@ -14484,7 +14492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A829">
         <v>828</v>
       </c>
@@ -14501,7 +14509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A830">
         <v>829</v>
       </c>
@@ -14518,7 +14526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A831">
         <v>830</v>
       </c>
@@ -14535,7 +14543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A832">
         <v>831</v>
       </c>
@@ -14552,7 +14560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A833">
         <v>832</v>
       </c>
@@ -14569,7 +14577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A834">
         <v>833</v>
       </c>
@@ -14586,7 +14594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A835">
         <v>834</v>
       </c>
@@ -14603,7 +14611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A836">
         <v>835</v>
       </c>
@@ -14620,7 +14628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A837">
         <v>836</v>
       </c>
@@ -14637,7 +14645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A838">
         <v>837</v>
       </c>
@@ -14654,7 +14662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A839">
         <v>838</v>
       </c>
@@ -14671,7 +14679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A840">
         <v>839</v>
       </c>
@@ -14688,7 +14696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A841">
         <v>840</v>
       </c>
@@ -14705,7 +14713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A842">
         <v>841</v>
       </c>
@@ -14722,7 +14730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A843">
         <v>842</v>
       </c>
@@ -14739,7 +14747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A844">
         <v>843</v>
       </c>
@@ -14756,7 +14764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A845">
         <v>844</v>
       </c>
@@ -14773,7 +14781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A846">
         <v>845</v>
       </c>
@@ -14790,7 +14798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A847">
         <v>846</v>
       </c>
@@ -14807,7 +14815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A848">
         <v>847</v>
       </c>
@@ -14824,7 +14832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A849">
         <v>848</v>
       </c>
@@ -14841,7 +14849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A850">
         <v>849</v>
       </c>
@@ -14858,7 +14866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A851">
         <v>850</v>
       </c>
@@ -14875,7 +14883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A852">
         <v>851</v>
       </c>
@@ -14892,7 +14900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A853">
         <v>852</v>
       </c>
@@ -14909,7 +14917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A854">
         <v>853</v>
       </c>
@@ -14926,7 +14934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A855">
         <v>854</v>
       </c>
@@ -14943,7 +14951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A856">
         <v>855</v>
       </c>
@@ -14960,7 +14968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A857">
         <v>856</v>
       </c>
@@ -14977,7 +14985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A858">
         <v>857</v>
       </c>
@@ -14994,7 +15002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A859">
         <v>858</v>
       </c>
@@ -15011,7 +15019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A860">
         <v>859</v>
       </c>
@@ -15028,7 +15036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A861">
         <v>860</v>
       </c>
@@ -15045,7 +15053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A862">
         <v>861</v>
       </c>
@@ -15062,7 +15070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A863">
         <v>862</v>
       </c>
@@ -15079,7 +15087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A864">
         <v>863</v>
       </c>
@@ -15096,7 +15104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A865">
         <v>864</v>
       </c>
@@ -15113,7 +15121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A866">
         <v>865</v>
       </c>
@@ -15130,7 +15138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A867">
         <v>866</v>
       </c>
@@ -15147,7 +15155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A868">
         <v>867</v>
       </c>
@@ -15164,7 +15172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A869">
         <v>868</v>
       </c>
@@ -15181,7 +15189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A870">
         <v>869</v>
       </c>
@@ -15198,7 +15206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A871">
         <v>870</v>
       </c>
@@ -15215,7 +15223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A872">
         <v>871</v>
       </c>
@@ -15232,7 +15240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A873">
         <v>872</v>
       </c>
@@ -15249,7 +15257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A874">
         <v>873</v>
       </c>
@@ -15266,7 +15274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A875">
         <v>874</v>
       </c>
@@ -15283,7 +15291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A876">
         <v>875</v>
       </c>
@@ -15300,7 +15308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A877">
         <v>876</v>
       </c>
@@ -15317,7 +15325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A878">
         <v>877</v>
       </c>
@@ -15334,7 +15342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A879">
         <v>878</v>
       </c>
@@ -15351,7 +15359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A880">
         <v>879</v>
       </c>
@@ -15368,7 +15376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A881">
         <v>880</v>
       </c>
@@ -15385,7 +15393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A882">
         <v>881</v>
       </c>
@@ -15402,7 +15410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A883">
         <v>882</v>
       </c>
@@ -15419,7 +15427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A884">
         <v>883</v>
       </c>
@@ -15436,7 +15444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A885">
         <v>884</v>
       </c>
@@ -15453,7 +15461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A886">
         <v>885</v>
       </c>
@@ -15470,7 +15478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="887" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A887">
         <v>886</v>
       </c>
@@ -15487,7 +15495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A888">
         <v>887</v>
       </c>
@@ -15504,7 +15512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A889">
         <v>888</v>
       </c>
@@ -15521,7 +15529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A890">
         <v>889</v>
       </c>
@@ -15538,7 +15546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A891">
         <v>890</v>
       </c>
@@ -15555,7 +15563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A892">
         <v>891</v>
       </c>
@@ -15572,7 +15580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A893">
         <v>892</v>
       </c>
@@ -15589,7 +15597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A894">
         <v>893</v>
       </c>
@@ -15606,7 +15614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A895">
         <v>894</v>
       </c>
@@ -15623,7 +15631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A896">
         <v>895</v>
       </c>
@@ -15640,7 +15648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A897">
         <v>896</v>
       </c>
@@ -15657,7 +15665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="898" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A898">
         <v>897</v>
       </c>
@@ -15674,7 +15682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="899" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A899">
         <v>898</v>
       </c>
@@ -15691,7 +15699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="900" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A900">
         <v>899</v>
       </c>
@@ -15708,7 +15716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="901" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A901">
         <v>900</v>
       </c>
@@ -15725,7 +15733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A902">
         <v>901</v>
       </c>
@@ -15742,7 +15750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="903" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A903">
         <v>902</v>
       </c>
@@ -15759,7 +15767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="904" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A904">
         <v>903</v>
       </c>
@@ -15776,7 +15784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A905">
         <v>904</v>
       </c>
@@ -15793,7 +15801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="906" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A906">
         <v>905</v>
       </c>
@@ -15810,7 +15818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A907">
         <v>906</v>
       </c>
@@ -15827,7 +15835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="908" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A908">
         <v>907</v>
       </c>
@@ -15844,7 +15852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="909" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A909">
         <v>908</v>
       </c>
@@ -15861,7 +15869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="910" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A910">
         <v>909</v>
       </c>
@@ -15878,7 +15886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="911" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A911">
         <v>910</v>
       </c>
@@ -15895,7 +15903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="912" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A912">
         <v>911</v>
       </c>
@@ -15912,7 +15920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="913" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A913">
         <v>912</v>
       </c>
@@ -15929,7 +15937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="914" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A914">
         <v>913</v>
       </c>
@@ -15946,7 +15954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="915" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A915">
         <v>914</v>
       </c>
@@ -15963,7 +15971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="916" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A916">
         <v>915</v>
       </c>
@@ -15980,7 +15988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="917" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A917">
         <v>916</v>
       </c>
@@ -15997,7 +16005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="918" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A918">
         <v>917</v>
       </c>
@@ -16014,7 +16022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="919" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A919">
         <v>918</v>
       </c>
@@ -16031,7 +16039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="920" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A920">
         <v>919</v>
       </c>
@@ -16048,7 +16056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="921" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A921">
         <v>920</v>
       </c>
@@ -16065,7 +16073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="922" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A922">
         <v>921</v>
       </c>
@@ -16082,7 +16090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="923" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A923">
         <v>922</v>
       </c>
@@ -16099,7 +16107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="924" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A924">
         <v>923</v>
       </c>
@@ -16116,7 +16124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="925" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A925">
         <v>924</v>
       </c>
@@ -16133,7 +16141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="926" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A926">
         <v>925</v>
       </c>
@@ -16150,7 +16158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="927" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A927">
         <v>926</v>
       </c>
@@ -16167,7 +16175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="928" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A928">
         <v>927</v>
       </c>
@@ -16184,7 +16192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="929" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A929">
         <v>928</v>
       </c>
@@ -16201,7 +16209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="930" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A930">
         <v>929</v>
       </c>
@@ -16218,7 +16226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="931" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A931">
         <v>930</v>
       </c>
@@ -16235,7 +16243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="932" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A932">
         <v>931</v>
       </c>
@@ -16252,7 +16260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="933" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A933">
         <v>932</v>
       </c>
@@ -16269,7 +16277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="934" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A934">
         <v>933</v>
       </c>
@@ -16286,7 +16294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="935" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A935">
         <v>934</v>
       </c>
@@ -16303,7 +16311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="936" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A936">
         <v>935</v>
       </c>
@@ -16320,7 +16328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="937" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A937">
         <v>936</v>
       </c>
@@ -16337,7 +16345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="938" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A938">
         <v>937</v>
       </c>
@@ -16354,7 +16362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="939" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A939">
         <v>938</v>
       </c>
@@ -16371,7 +16379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="940" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A940">
         <v>939</v>
       </c>
@@ -16388,7 +16396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="941" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A941">
         <v>940</v>
       </c>
@@ -16405,7 +16413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="942" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A942">
         <v>941</v>
       </c>
@@ -16422,7 +16430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="943" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A943">
         <v>942</v>
       </c>
@@ -16439,7 +16447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="944" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A944">
         <v>943</v>
       </c>
@@ -16456,7 +16464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="945" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A945">
         <v>944</v>
       </c>
@@ -16473,7 +16481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="946" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A946">
         <v>945</v>
       </c>
